--- a/biology/Zoologie/Formicariidae/Formicariidae.xlsx
+++ b/biology/Zoologie/Formicariidae/Formicariidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Formicariidae (ou formicariidés) sont une famille de passereaux autrefois appelée fourmiliers. Cette famille est constituée de deux genres et douze espèces de tétémas.
 Ce sont des oiseaux dodus de taille petite à moyenne (de 10 à 24 cm), aux mœurs à prédominance terrestre. Ils ont de courtes ailes arrondies, de longues pattes et une queue courte, ainsi qu'une grosse tête et de grands yeux. Les teintes dominantes de leur plumage terne sont le roux, l'olive, le brun, le noir et le blanc.
@@ -513,7 +525,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chamaeza Vigors, 1825
 Formicarius Boddaert, 1783</t>
@@ -544,7 +558,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Formicarius colma – Tétéma colma
